--- a/PredLig/src/Documentation/Resultados/Results and Diferences_min-edges3-weighted-combLinear-1999-arxiv.xlsx
+++ b/PredLig/src/Documentation/Resultados/Results and Diferences_min-edges3-weighted-combLinear-1999-arxiv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="HEP-PH" sheetId="5" r:id="rId5"/>
     <sheet name="COND-MAT" sheetId="6" r:id="rId6"/>
     <sheet name="ASTRO-PH" sheetId="7" r:id="rId7"/>
+    <sheet name="MAS" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Article Data</t>
   </si>
@@ -182,6 +183,9 @@
   </si>
   <si>
     <t>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</t>
+  </si>
+  <si>
+    <t>MAS</t>
   </si>
 </sst>
 </file>
@@ -191,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +238,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -379,17 +390,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,6 +416,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -522,7 +534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -695,12 +706,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="112072192"/>
-        <c:axId val="112073728"/>
+        <c:axId val="87431040"/>
+        <c:axId val="87432576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="112072192"/>
+        <c:axId val="87431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,14 +741,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112073728"/>
+        <c:crossAx val="87432576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112073728"/>
+        <c:axId val="87432576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +788,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112072192"/>
+        <c:crossAx val="87431040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -804,7 +815,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -840,7 +851,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1013,12 +1023,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="112102784"/>
-        <c:axId val="112125056"/>
+        <c:axId val="87359488"/>
+        <c:axId val="87361024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="112102784"/>
+        <c:axId val="87359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,14 +1058,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112125056"/>
+        <c:crossAx val="87361024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112125056"/>
+        <c:axId val="87361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1105,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112102784"/>
+        <c:crossAx val="87359488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,7 +1132,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1158,7 +1168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1331,12 +1340,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="112186880"/>
-        <c:axId val="112188416"/>
+        <c:axId val="96343936"/>
+        <c:axId val="96345472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="112186880"/>
+        <c:axId val="96343936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,14 +1375,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112188416"/>
+        <c:crossAx val="96345472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112188416"/>
+        <c:axId val="96345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1422,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112186880"/>
+        <c:crossAx val="96343936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1440,7 +1449,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1476,7 +1485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1649,12 +1657,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="112651648"/>
-        <c:axId val="112653440"/>
+        <c:axId val="96399360"/>
+        <c:axId val="96400896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="112651648"/>
+        <c:axId val="96399360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,14 +1692,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112653440"/>
+        <c:crossAx val="96400896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112653440"/>
+        <c:axId val="96400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1739,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112651648"/>
+        <c:crossAx val="96399360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,7 +1766,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1967,12 +1975,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="112723072"/>
-        <c:axId val="112724608"/>
+        <c:axId val="96544256"/>
+        <c:axId val="96545792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="112723072"/>
+        <c:axId val="96544256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,14 +2010,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112724608"/>
+        <c:crossAx val="96545792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112724608"/>
+        <c:axId val="96545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2057,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112723072"/>
+        <c:crossAx val="96544256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,7 +2084,325 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pt-BR"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>MAS - Random = 0,03</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="878787"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:floor>
+    <c:backWall>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="878787"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results 1994-1999'!$C$7:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Common Neighbors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adamic Adar similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jaccard similarity coefficient</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Preferential Attachment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Score DF 0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Score DF 0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Time Score DF 0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Domain Time Score 0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Domain Time Score 0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Domain Time Score 0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>cnW Time Score DF 0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>cnW Time Score DF 0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>cnW Time Score DF 0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>aaW Time Score DF 0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>aaW Time Score DF 0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>aaW Time Score DF 0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cnWJC</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>aaWJC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results 1994-1999'!$I$7:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>315.06481837047784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324.82346318726252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299.33149305362082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.466650633713961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.92814116972619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.16105651963221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243.36865236961057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251.73320506971169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.75430465298484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.3602125363013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.051458933757331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.648926983764554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.453990883750095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.233735283807917</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.233735283807917</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.636267233800687</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.034579267138838</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.648926983764554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="71553024"/>
+        <c:axId val="97764096"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="71553024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97764096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97764096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71553024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="878787"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2134,7 +2460,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2240,6 +2566,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2544,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2554,535 +2915,548 @@
     <col min="3" max="5" width="8.42578125"/>
     <col min="6" max="6" width="13.42578125"/>
     <col min="7" max="7" width="8.42578125"/>
-    <col min="8" max="8" width="5.7109375"/>
-    <col min="9" max="9" width="5.5703125"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="18" width="8.42578125"/>
     <col min="19" max="19" width="34.28515625"/>
     <col min="20" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>2122</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>3287</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>5724</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>486</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>519</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>5241</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>9498</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>15842</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1438</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>2311</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>1576</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>5414</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>10254</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>47806</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>1790</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>6654</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>3294</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>5469</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>6700</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>19881</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>1253</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>1899</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>1150</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>5343</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>5816</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>41852</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>1561</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>6178</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>5751</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="36" customHeight="1">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>2640</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>3291</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>6266</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>390</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
         <v>269</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>6963</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>9496</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>17684</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>1192</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>1289</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>767</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>7263</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>10278</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>50988</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>1689</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <v>4363</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>1950</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>7161</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>6698</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>25042</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>1144</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>1370</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>723</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>7049</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>5820</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>46700</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>1336</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
         <v>3610</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>2087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>17704</v>
+      </c>
+      <c r="E17" s="2">
+        <v>118188</v>
+      </c>
+      <c r="F17" s="2">
+        <v>74716</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9616</v>
+      </c>
+      <c r="H17" s="2">
+        <v>21971</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15232</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <f t="shared" ref="D21:I25" si="0">D4-D12</f>
         <v>-518</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>-542</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>-1722</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <f t="shared" si="0"/>
         <v>-1842</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="13">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="5">
+      <c r="C23" s="15"/>
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>-1849</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>-24</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>-3182</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>2291</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>-1692</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
         <v>-5161</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="0"/>
         <v>529</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="13">
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="5">
+      <c r="C25" s="16"/>
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>-1706</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>-4848</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>2568</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>3664</v>
       </c>
@@ -3094,16 +3468,16 @@
     <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H43"/>
+  <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -3115,908 +3489,1042 @@
     <col min="6" max="6" width="12.7109375"/>
     <col min="7" max="7" width="9"/>
     <col min="8" max="8" width="9.7109375"/>
-    <col min="9" max="1025" width="8.42578125"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:9">
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="3:9">
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="6" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <f>( 'First Table'!I12 / ( ( ('First Table'!G12 * ('First Table'!G12 - 1))/2) - 'First Table'!H12) *100)</f>
         <v>0.18125049612362076</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <f>( 'First Table'!I13 / ( ( ('First Table'!G13 * ('First Table'!G13 - 1))/2) - 'First Table'!H13)*100)</f>
         <v>0.1082496997376321</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <f>( 'First Table'!I14 / ( ( ('First Table'!G14 * ('First Table'!G14 - 1))/2) - 'First Table'!H14)*100)</f>
         <v>0.13721253095198055</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <f>( 'First Table'!I15 / ( ( ('First Table'!G15 * ('First Table'!G15 - 1))/2) - 'First Table'!H15)*100 )</f>
         <v>0.11081716547163969</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <f>( 'First Table'!I16 / ( ( ('First Table'!G16 * ('First Table'!G16 - 1))/2) - 'First Table'!H16) *100)</f>
         <v>0.23497753808392538</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C6" s="5" t="s">
+      <c r="I5" s="19">
+        <f>( 'First Table'!I17 / ( ( ('First Table'!G17 * ('First Table'!G17 - 1))/2) - 'First Table'!H17) *100)</f>
+        <v>3.2964738701964501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>14</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>42</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>132</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>51</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>186</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" collapsed="1">
-      <c r="C7" s="5" t="s">
+      <c r="I6" s="21">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" collapsed="1">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <f>((D6/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <f>((E6/   'First Table'!I13    )*100)/E5</f>
         <v>50.585637331311638</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <f>((F6/   'First Table'!I14    )*100)/F5</f>
         <v>49.33391084812623</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <f>((G6/   'First Table'!I15    )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <f>((H6/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C8" s="5" t="s">
+      <c r="I7" s="21">
+        <f>((I6/   'First Table'!I17    )*100)/I5</f>
+        <v>315.06481837047784</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>14</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>52</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>143</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>53</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" collapsed="1">
-      <c r="C9" s="5" t="s">
+      <c r="I8" s="21">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" collapsed="1">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <f>((D8/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <f>((E8/   'First Table'!I13    )*100)/E5</f>
         <v>62.629836695909653</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <f>((F8/   'First Table'!I14    )*100)/F5</f>
         <v>53.445070085470078</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <f>((G8/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <f>((H8/   'First Table'!I16    )*100)/H5</f>
         <v>36.908787347875787</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C10" s="5" t="s">
+      <c r="I9" s="21">
+        <f>((I8/   'First Table'!I17    )*100)/I5</f>
+        <v>324.82346318726252</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>14</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>55</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>126</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>47</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" collapsed="1">
-      <c r="C11" s="5" t="s">
+      <c r="I10" s="21">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" collapsed="1">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <f>((D10/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <f>((E10/   'First Table'!I13    )*100)/E5</f>
         <v>66.243096505289046</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <f>((F10/   'First Table'!I14    )*100)/F5</f>
         <v>47.091460355029582</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <f>((G10/ 'First Table'!I15  )*100)/G5</f>
         <v>58.661413466633768</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="21">
         <f>((H10/   'First Table'!I16    )*100)/H5</f>
         <v>33.238300208308033</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C12" s="5" t="s">
+      <c r="I11" s="21">
+        <f>((I10/   'First Table'!I17    )*100)/I5</f>
+        <v>299.33149305362082</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>71</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>4</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="21">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" collapsed="1">
-      <c r="C13" s="5" t="s">
+      <c r="I12" s="21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" collapsed="1">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <f>((D12/ 'First Table'!I12  )*100)/D5</f>
         <v>4.0271724652352283</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <f>((E12/   'First Table'!I13    )*100)/E5</f>
         <v>2.4088398729196023</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <f>((F12/   'First Table'!I14    )*100)/F5</f>
         <v>26.535664168310316</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <f>((G12/ 'First Table'!I15  )*100)/G5</f>
         <v>4.9924607205645755</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="21">
         <f>((H12/   'First Table'!I16    )*100)/H5</f>
         <v>5.5057307093516368</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C14" s="5" t="s">
+      <c r="I13" s="21">
+        <f>((I12/   'First Table'!I17    )*100)/I5</f>
+        <v>31.466650633713961</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>14</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>66</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>125</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <v>54</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="21">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" collapsed="1">
-      <c r="C15" s="5" t="s">
+      <c r="I14" s="21">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" collapsed="1">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <f>((D14/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <f>((E14/   'First Table'!I13   )*100)/E5</f>
         <v>79.491715806346861</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <f>((F14/   'First Table'!I14    )*100)/F5</f>
         <v>46.717718606180135</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <f>((G14/ 'First Table'!I15  )*100)/G5</f>
         <v>67.398219727621765</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="21">
         <f>((H14/   'First Table'!I16    )*100)/H5</f>
         <v>37.520535204470413</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C16" s="5" t="s">
+      <c r="I15" s="21">
+        <f>((I14/   'First Table'!I17    )*100)/I5</f>
+        <v>252.92814116972619</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>15</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>69</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <v>125</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>55</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="21">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" collapsed="1">
-      <c r="C17" s="5" t="s">
+      <c r="I16" s="21">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" collapsed="1">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <f>((D16/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <f>((E16/   'First Table'!I13   )*100)/E5</f>
         <v>83.104975615726289</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <f>((F16/   'First Table'!I14    )*100)/F5</f>
         <v>46.717718606180135</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <f>((G16/ 'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="21">
         <f>((H16/   'First Table'!I16    )*100)/H5</f>
         <v>38.540114965461456</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C18" s="5" t="s">
+      <c r="I17" s="21">
+        <f>((I16/   'First Table'!I17    )*100)/I5</f>
+        <v>245.16105651963221</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>15</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>67</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>126</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <v>56</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="21">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" collapsed="1">
-      <c r="C19" s="5" t="s">
+      <c r="I18" s="21">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" collapsed="1">
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <f>((D18/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <f>((E18/   'First Table'!I13   )*100)/E5</f>
         <v>80.696135742806661</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <f>((F18/   'First Table'!I14    )*100)/F5</f>
         <v>47.091460355029582</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="21">
         <f>((G18/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="21">
         <f>((H18/   'First Table'!I16    )*100)/H5</f>
         <v>37.112703300074003</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C20" s="5" t="s">
+      <c r="I19" s="21">
+        <f>((I18/   'First Table'!I17    )*100)/I5</f>
+        <v>243.36865236961057</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" hidden="1" outlineLevel="1">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>16</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>76</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>129</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>58</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="21">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" collapsed="1">
-      <c r="C21" s="5" t="s">
+      <c r="I20" s="21">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" collapsed="1">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <f>((D20/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <f>((E20/   'First Table'!I13   )*100)/E5</f>
         <v>91.535915170944875</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <f>((F20/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <f>((G20/ 'First Table'!I15  )*100)/G5</f>
         <v>72.390680448186345</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="21">
         <f>((H20/   'First Table'!I16    )*100)/H5</f>
         <v>38.132283061065039</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C22" s="5" t="s">
+      <c r="I21" s="21">
+        <f>((I20/   'First Table'!I17    )*100)/I5</f>
+        <v>251.73320506971169</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" hidden="1" outlineLevel="1">
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>16</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>71</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>128</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <v>53</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="21">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" collapsed="1">
-      <c r="C23" s="5" t="s">
+      <c r="I22" s="21">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" collapsed="1">
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <f>((D22/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="23">
         <f>((E22/   'First Table'!I13   )*100)/E5</f>
         <v>85.513815488645875</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <f>((F22/   'First Table'!I14    )*100)/F5</f>
         <v>47.838943852728463</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="21">
         <f>((G22/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="21">
         <f>((H22/   'First Table'!I16    )*100)/H5</f>
         <v>38.336199013263247</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C24" s="5" t="s">
+      <c r="I23" s="21">
+        <f>((I22/   'First Table'!I17    )*100)/I5</f>
+        <v>246.75430465298484</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" hidden="1" outlineLevel="1">
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>16</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>71</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="21">
         <v>127</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>52</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="21">
         <v>188</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" collapsed="1">
-      <c r="C25" s="5" t="s">
+      <c r="I24" s="21">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" collapsed="1">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <f>((D24/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="23">
         <f>((E24/   'First Table'!I13   )*100)/E5</f>
         <v>85.513815488645875</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="21">
         <f>((F24/   'First Table'!I14    )*100)/F5</f>
         <v>47.465202103879015</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <f>((G24/ 'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="21">
         <f>((H24/   'First Table'!I16    )*100)/H5</f>
         <v>38.336199013263247</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C26" s="27" t="s">
+      <c r="I25" s="21">
+        <f>((I24/   'First Table'!I17    )*100)/I5</f>
+        <v>245.3602125363013</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>14</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>60</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="21">
         <v>120</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="21">
         <v>51</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="21">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" collapsed="1">
-      <c r="C27" s="27" t="s">
+      <c r="I26" s="21">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" collapsed="1">
+      <c r="C27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="21">
         <f>((D26/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <f>((E26/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <f>((F26/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="21">
         <f>((G26/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="21">
         <f>((H26/   'First Table'!I16    )*100)/H5</f>
         <v>35.685291634686529</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C28" s="27" t="s">
+      <c r="I27" s="21">
+        <f>((I26/   'First Table'!I17    )*100)/I5</f>
+        <v>35.051458933757331</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>15</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>58</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>120</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="21">
         <v>51</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="21">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" collapsed="1">
-      <c r="C29" s="27" t="s">
+      <c r="I28" s="21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" collapsed="1">
+      <c r="C29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <f>((D28/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <f>((E28/   'First Table'!I13   )*100)/E5</f>
         <v>69.856356314668474</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="21">
         <f>((F28/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="21">
         <f>((G28/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="21">
         <f>((H28/   'First Table'!I16    )*100)/H5</f>
         <v>36.297039491281161</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C30" s="27" t="s">
+      <c r="I29" s="21">
+        <f>((I28/   'First Table'!I17    )*100)/I5</f>
+        <v>35.648926983764554</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>16</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="21">
         <v>59</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="21">
         <v>120</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>51</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="21">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" collapsed="1">
-      <c r="C31" s="27" t="s">
+      <c r="I30" s="21">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" collapsed="1">
+      <c r="C31" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="21">
         <f>((D30/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <f>((E30/   'First Table'!I13   )*100)/E5</f>
         <v>71.06077625112826</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="21">
         <f>((F30/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="21">
         <f>((G30/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="21">
         <f>((H30/   'First Table'!I16    )*100)/H5</f>
         <v>35.073543778091903</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C32" s="27" t="s">
+      <c r="I31" s="21">
+        <f>((I30/   'First Table'!I17    )*100)/I5</f>
+        <v>34.453990883750095</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>15</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>61</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="21">
         <v>134</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="21">
         <v>57</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="21">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" collapsed="1">
-      <c r="C33" s="27" t="s">
+      <c r="I32" s="21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" collapsed="1">
+      <c r="C33" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="21">
         <f>((D32/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <f>((E32/   'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="21">
         <f>((F32/   'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="21">
         <f>((G32/ 'First Table'!I15  )*100)/G5</f>
         <v>71.142565268045203</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="21">
         <f>((H32/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C34" s="27" t="s">
+      <c r="I33" s="21">
+        <f>((I32/   'First Table'!I17    )*100)/I5</f>
+        <v>39.233735283807917</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="21">
         <v>16</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <v>60</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="21">
         <v>136</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="21">
         <v>56</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="21">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" collapsed="1">
-      <c r="C35" s="27" t="s">
+      <c r="I34" s="21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" collapsed="1">
+      <c r="C35" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <f>((D34/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="21">
         <f>((E34/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="21">
         <f>((F34/   'First Table'!I14    )*100)/F5</f>
         <v>50.828877843523998</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="21">
         <f>((G34/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="21">
         <f>((H34/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C36" s="27" t="s">
+      <c r="I35" s="21">
+        <f>((I34/   'First Table'!I17    )*100)/I5</f>
+        <v>39.233735283807917</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C36" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="21">
         <v>16</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="21">
         <v>61</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="21">
         <v>134</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="21">
         <v>53</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="21">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" collapsed="1">
-      <c r="C37" s="27" t="s">
+      <c r="I36" s="21">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" collapsed="1">
+      <c r="C37" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="21">
         <f>((D36/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <f>((E36/   'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="21">
         <f>((F36/   'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="21">
         <f>((G36/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="21">
         <f>((H36/   'First Table'!I16    )*100)/H5</f>
         <v>39.355778774254297</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C38" s="27" t="s">
+      <c r="I37" s="21">
+        <f>((I36/   'First Table'!I17    )*100)/I5</f>
+        <v>38.636267233800687</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" hidden="1" outlineLevel="1">
+      <c r="C38" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="21">
         <v>10</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <v>51</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="21">
         <v>130</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="21">
         <v>52</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="21">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" collapsed="1">
-      <c r="C39" s="27" t="s">
+      <c r="I38" s="21">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" collapsed="1">
+      <c r="C39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="21">
         <f>((D38/ 'First Table'!I12  )*100)/D5</f>
         <v>40.271724652352283</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="23">
         <f>((E38/   'First Table'!I13   )*100)/E5</f>
         <v>61.42541675944986</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="21">
         <f>((F38/   'First Table'!I14    )*100)/F5</f>
         <v>48.58642735042735</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="21">
         <f>((G38/ 'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="21">
         <f>((H38/   'First Table'!I16    )*100)/H5</f>
         <v>39.763610678650707</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C40" s="27" t="s">
+      <c r="I39" s="21">
+        <f>((I38/   'First Table'!I17    )*100)/I5</f>
+        <v>39.034579267138838</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" hidden="1" outlineLevel="1">
+      <c r="C40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="21">
         <v>14</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="21">
         <v>50</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="21">
         <v>153</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="21">
         <v>55</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="21">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" collapsed="1">
-      <c r="C41" s="27" t="s">
+      <c r="I40" s="21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" collapsed="1">
+      <c r="C41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="21">
         <f>((D40/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="23">
         <f>((E40/   'First Table'!I13   )*100)/E5</f>
         <v>60.220996822990053</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="21">
         <f>((F40/   'First Table'!I14    )*100)/F5</f>
         <v>57.182487573964494</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="21">
         <f>((G40/ 'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="21">
         <f>((H40/   'First Table'!I16    )*100)/H5</f>
         <v>36.297039491281161</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" hidden="1" outlineLevel="2">
-      <c r="C42" s="27" t="s">
+      <c r="I41" s="21">
+        <f>((I40/   'First Table'!I17    )*100)/I5</f>
+        <v>35.648926983764554</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" hidden="1" outlineLevel="2">
+      <c r="C42" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="3:8" hidden="1" collapsed="1">
-      <c r="C43" s="27" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="3:9" hidden="1" collapsed="1">
+      <c r="C43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="21">
         <f>((D42/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="21">
         <f>((E42/   'First Table'!I13   )*100)/E5</f>
         <v>0</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="21">
         <f>((F42/   'First Table'!I14    )*100)/F5</f>
         <v>0</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="21">
         <f>((G42/ 'First Table'!I15  )*100)/G5</f>
         <v>0</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="21">
         <f>((H42/   'First Table'!I16    )*100)/H5</f>
         <v>0</v>
       </c>
@@ -4113,7 +4621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4126,4 +4634,19 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>